--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33637\Documents\11. Deep Learning\2. Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BE2FAB-A7C7-410D-AA89-20C2D012EDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B77E2E-1786-4E66-947C-E5607367D8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,44 @@
     <sheet name="Day Ahead" sheetId="1" r:id="rId1"/>
     <sheet name="Intra Day" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4E8999E3-B0E2-488B-9900-9360228FB54F}</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{4E8999E3-B0E2-488B-9900-9360228FB54F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    With u an v for wind direction. Same results again without ws, but only u and v.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -89,6 +116,9 @@
   </si>
   <si>
     <t>Past power 24h + Forecast 1h WS + WD + time</t>
+  </si>
+  <si>
+    <t>24 past power</t>
   </si>
 </sst>
 </file>
@@ -98,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +142,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -160,6 +196,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="33637053650" id="{F33EF54D-F342-4A73-A6B9-D9FE37A0C54A}" userId="993b84f116c69144" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,12 +465,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D3" dT="2021-11-14T14:36:14.74" personId="{F33EF54D-F342-4A73-A6B9-D9FE37A0C54A}" id="{4E8999E3-B0E2-488B-9900-9360228FB54F}">
+    <text>With u an v for wind direction. Same results again without ws, but only u and v.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,7 +487,7 @@
     <col min="3" max="3" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,31 +498,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2" s="3">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -480,7 +542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -488,7 +550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -496,8 +558,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -506,7 +577,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33637\Documents\11. Deep Learning\2. Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B77E2E-1786-4E66-947C-E5607367D8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF21F2D-2CB7-455B-82E1-09ABBD07B30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Day Ahead" sheetId="1" r:id="rId1"/>
+    <sheet name="Mapping intra day" sheetId="1" r:id="rId1"/>
     <sheet name="Intra Day" sheetId="2" r:id="rId2"/>
+    <sheet name="Cross_validation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>Model</t>
   </si>
@@ -106,29 +107,171 @@
     <t>Past power 3h</t>
   </si>
   <si>
-    <t>LSTM + FFNN</t>
-  </si>
-  <si>
-    <t>Past power 24h + Forecast 1h WS</t>
-  </si>
-  <si>
-    <t>Past power 24h + Forecast 1h WS + WD</t>
-  </si>
-  <si>
     <t>Past power 24h + Forecast 1h WS + WD + time</t>
   </si>
   <si>
     <t>24 past power</t>
+  </si>
+  <si>
+    <t>RMSE 4h</t>
+  </si>
+  <si>
+    <t>RMSE 5h</t>
+  </si>
+  <si>
+    <t>RMSE 6h</t>
+  </si>
+  <si>
+    <t>LSTM AR</t>
+  </si>
+  <si>
+    <t>* We use cross validation to optimize this model (time window, number of neurons, batch size, learning rate)</t>
+  </si>
+  <si>
+    <t>Time window selection</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>24h</t>
+  </si>
+  <si>
+    <t>36h</t>
+  </si>
+  <si>
+    <t>16min</t>
+  </si>
+  <si>
+    <t>13min</t>
+  </si>
+  <si>
+    <t>Time for 500 epochs</t>
+  </si>
+  <si>
+    <t>Number of neurons selection</t>
+  </si>
+  <si>
+    <t>Batch size</t>
+  </si>
+  <si>
+    <t>Learning rate</t>
+  </si>
+  <si>
+    <t>27min</t>
+  </si>
+  <si>
+    <t>0.06801 (500 epochs)</t>
+  </si>
+  <si>
+    <t>0.06749 (2000 epochs)</t>
+  </si>
+  <si>
+    <t>42min</t>
+  </si>
+  <si>
+    <t>0.06805 (100 epochs)</t>
+  </si>
+  <si>
+    <t>11min</t>
+  </si>
+  <si>
+    <t>0.06887 (127 epochs)</t>
+  </si>
+  <si>
+    <t>0.06808 (127 epochs)</t>
+  </si>
+  <si>
+    <t>7min</t>
+  </si>
+  <si>
+    <t>FFNN 32 + LSTM 512 - BS16</t>
+  </si>
+  <si>
+    <t>FFNN 256 + LSTM 256 - BS16</t>
+  </si>
+  <si>
+    <t>FFNN 32 + LSTM 512 - BS128</t>
+  </si>
+  <si>
+    <t>FFNN 256 + LSTM 256 - BS128</t>
+  </si>
+  <si>
+    <t>0.069239 (284 epochs)</t>
+  </si>
+  <si>
+    <t>0.07414 (295 epochs)</t>
+  </si>
+  <si>
+    <t>5min</t>
+  </si>
+  <si>
+    <t>2min</t>
+  </si>
+  <si>
+    <t>FFNN 512 + LSTM 32 - BS16</t>
+  </si>
+  <si>
+    <t>0.06805 (639 epochs)</t>
+  </si>
+  <si>
+    <t>Past power 24h + Forecast 1h WS^3 + WD + time</t>
+  </si>
+  <si>
+    <t>Persistent</t>
+  </si>
+  <si>
+    <t>Past power 1h</t>
+  </si>
+  <si>
+    <t>LSTM AR + FFNN</t>
+  </si>
+  <si>
+    <t>MAE 1h</t>
+  </si>
+  <si>
+    <t>MAE 2h</t>
+  </si>
+  <si>
+    <t>MAE 3h</t>
+  </si>
+  <si>
+    <t>MAE 4h</t>
+  </si>
+  <si>
+    <t>MAE 5h</t>
+  </si>
+  <si>
+    <t>MAE 6h</t>
+  </si>
+  <si>
+    <t>1 Forecast WS + WD + time (1h ahead)</t>
+  </si>
+  <si>
+    <t>1 Forecast WS + WD + time (2h ahead)</t>
+  </si>
+  <si>
+    <t>1 Forecast WS + WD + time (3h ahead)</t>
+  </si>
+  <si>
+    <t>1 Forecast WS + WD + time (4h ahead)</t>
+  </si>
+  <si>
+    <t>1 Forecast WS + WD + time (5h ahead)</t>
+  </si>
+  <si>
+    <t>1 Forecast WS + WD + time (6h ahead)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,13 +287,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,8 +329,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -172,15 +344,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,11 +747,12 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
     <col min="2" max="2" width="35.36328125" customWidth="1"/>
     <col min="3" max="3" width="10.36328125" customWidth="1"/>
   </cols>
@@ -505,7 +775,7 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.18099999999999999</v>
       </c>
     </row>
@@ -563,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -574,10 +844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677C61B4-F4A3-4ABA-BFDB-CECBC0184A33}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,83 +857,651 @@
     <col min="3" max="3" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="11">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.114</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1.43E-2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.188</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I2" s="15">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J2" s="15">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K2" s="15">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L2" s="15">
+        <v>0.114</v>
+      </c>
+      <c r="M2" s="15">
+        <v>0.129</v>
+      </c>
+      <c r="N2" s="15">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="11">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="12">
         <v>0.11</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="11">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F3" s="11">
+        <v>0.158</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="I3" s="15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J3" s="15">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.115</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C4" s="13">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.153</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.221</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
+      <c r="C6" s="11">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.127</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I6" s="15">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J6" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K6" s="15">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L6" s="15">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="20">
+        <v>0.122</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.158</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="15">
+        <v>0.122</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19">
+        <v>0.161</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15">
+        <v>0.124</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19">
+        <v>0.161</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15">
+        <v>0.124</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19">
+        <v>0.159</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="I8:N8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D0FF3D-5BD2-44C8-AA9A-FD3608748379}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>6.8070000000000006E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>6.8040000000000003E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>128</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33637\Documents\11. Deep Learning\2. Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF21F2D-2CB7-455B-82E1-09ABBD07B30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6D6F5E-0D9F-49D0-A7A5-0B78F8178F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,9 +416,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,6 +449,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,7 +847,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="I6" sqref="I6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -926,22 +926,22 @@
       <c r="H2" s="11">
         <v>0.20499999999999999</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="13">
         <v>4.7E-2</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="13">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="13">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="13">
         <v>0.114</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="13">
         <v>0.129</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="13">
         <v>0.14299999999999999</v>
       </c>
     </row>
@@ -970,22 +970,22 @@
       <c r="H3" s="12">
         <v>0.19</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="13">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="13">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="13">
         <v>0.10100000000000001</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="13">
         <v>0.11899999999999999</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="13">
         <v>0.13500000000000001</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="13">
         <v>0.14699999999999999</v>
       </c>
     </row>
@@ -996,30 +996,42 @@
       <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13">
-        <v>7.2999999999999995E-2</v>
+      <c r="C4" s="26">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D4" s="14">
+        <v>0.111</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0.18</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="I4" s="13">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J4" s="13">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="L4" s="13">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E4" s="14">
-        <v>0.153</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0.221</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="M4" s="13">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0.14599999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
@@ -1034,12 +1046,12 @@
       <c r="F5" s="12"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
@@ -1066,22 +1078,22 @@
       <c r="H6" s="12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="13">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="13">
         <v>0.10299999999999999</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="13">
         <v>0.107</v>
       </c>
     </row>
@@ -1092,20 +1104,20 @@
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>0.18099999999999999</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
@@ -1114,20 +1126,20 @@
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>0.17699999999999999</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
@@ -1136,22 +1148,22 @@
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>0.16200000000000001</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="20">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="19">
         <v>0.122</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
@@ -1160,22 +1172,22 @@
       <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>0.158</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="15">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="13">
         <v>0.122</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
@@ -1184,22 +1196,22 @@
       <c r="B11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18">
         <v>0.161</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13">
         <v>0.124</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
@@ -1208,22 +1220,22 @@
       <c r="B12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
         <v>0.161</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13">
         <v>0.124</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
@@ -1232,22 +1244,22 @@
       <c r="B13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18">
         <v>0.16200000000000001</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15">
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13">
         <v>0.125</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
@@ -1256,22 +1268,22 @@
       <c r="B14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18">
         <v>0.16200000000000001</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15">
+      <c r="H14" s="18"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13">
         <v>0.125</v>
       </c>
-      <c r="N14" s="15"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
@@ -1280,20 +1292,20 @@
       <c r="B15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18">
         <v>0.159</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13">
         <v>0.123</v>
       </c>
     </row>
